--- a/docs/DB-Modeling/ver002-2024-03-13.xlsx
+++ b/docs/DB-Modeling/ver002-2024-03-13.xlsx
@@ -675,6 +675,18 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,18 +695,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -993,7 +993,7 @@
   <dimension ref="B2:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1011,22 +1011,22 @@
   <sheetData>
     <row r="2" spans="2:22" ht="17.25" thickBot="1"/>
     <row r="3" spans="2:22" ht="17.25" thickBot="1">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="E3" s="19" t="s">
+      <c r="C3" s="24"/>
+      <c r="E3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="Q3" s="19" t="s">
+      <c r="F3" s="24"/>
+      <c r="Q3" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="20"/>
-      <c r="U3" s="19" t="s">
+      <c r="R3" s="24"/>
+      <c r="U3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="V3" s="20"/>
+      <c r="V3" s="24"/>
     </row>
     <row r="4" spans="2:22">
       <c r="B4" s="1" t="s">
@@ -1039,14 +1039,14 @@
         <v>23</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="N4" s="20"/>
+      <c r="N4" s="24"/>
       <c r="Q4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="21" t="s">
         <v>94</v>
       </c>
       <c r="U4" s="1" t="s">
@@ -1127,11 +1127,11 @@
       <c r="V7" s="2"/>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="20" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="20" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="2"/>
@@ -1167,10 +1167,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="24"/>
       <c r="Q10" s="1" t="s">
         <v>71</v>
       </c>
@@ -1243,18 +1243,18 @@
         <v>12</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="H16" s="19" t="s">
+      <c r="F16" s="24"/>
+      <c r="H16" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="M16" s="19" t="s">
+      <c r="I16" s="24"/>
+      <c r="M16" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="N16" s="20"/>
+      <c r="N16" s="24"/>
       <c r="Q16" s="1" t="s">
         <v>75</v>
       </c>
@@ -1274,13 +1274,13 @@
       <c r="H17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="22" t="s">
         <v>95</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="24" t="s">
+      <c r="N17" s="21" t="s">
         <v>92</v>
       </c>
       <c r="Q17" s="1" t="s">
@@ -1375,7 +1375,7 @@
         <v>40</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="M21" s="22" t="s">
+      <c r="M21" s="19" t="s">
         <v>57</v>
       </c>
       <c r="N21" s="2"/>
@@ -1385,7 +1385,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="20" t="s">
         <v>100</v>
       </c>
       <c r="F22" s="2"/>
@@ -1436,14 +1436,14 @@
     </row>
     <row r="30" spans="2:18" ht="17.25" thickBot="1"/>
     <row r="31" spans="2:18">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="E31" s="19" t="s">
+      <c r="C31" s="24"/>
+      <c r="E31" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="20"/>
+      <c r="F31" s="24"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="1" t="s">
@@ -1471,23 +1471,23 @@
     </row>
     <row r="39" spans="2:14" ht="17.25" thickBot="1"/>
     <row r="40" spans="2:14">
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="21"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="8"/>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H40" s="20"/>
-      <c r="J40" s="19" t="s">
+      <c r="H40" s="24"/>
+      <c r="J40" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K40" s="20"/>
-      <c r="M40" s="19" t="s">
+      <c r="K40" s="24"/>
+      <c r="M40" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="N40" s="20"/>
+      <c r="N40" s="24"/>
     </row>
     <row r="41" spans="2:14">
       <c r="B41" s="1" t="s">
@@ -1531,7 +1531,7 @@
       <c r="J42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K42" s="24" t="s">
+      <c r="K42" s="21" t="s">
         <v>92</v>
       </c>
       <c r="M42" s="1" t="s">
